--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,9 +159,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +485,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,10 +507,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -521,7 +518,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -532,7 +529,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -543,7 +540,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -554,14 +551,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
